--- a/GMU -Team 1-Requirements Traceability Matrix.xlsx
+++ b/GMU -Team 1-Requirements Traceability Matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Requirement</t>
   </si>
@@ -113,9 +113,6 @@
     <t>GMU</t>
   </si>
   <si>
-    <t>Test ID</t>
-  </si>
-  <si>
     <t>Date Passed</t>
   </si>
   <si>
@@ -123,6 +120,45 @@
   </si>
   <si>
     <t>George Mason University Team 1</t>
+  </si>
+  <si>
+    <t>TypeTest_Byte</t>
+  </si>
+  <si>
+    <t>TypeTest_IntArr</t>
+  </si>
+  <si>
+    <t>TypeTest_String</t>
+  </si>
+  <si>
+    <t>TypeTest_Char</t>
+  </si>
+  <si>
+    <t>TypeTest_Boolean</t>
+  </si>
+  <si>
+    <t>TypeTest_Double</t>
+  </si>
+  <si>
+    <t>TypeTest_Float</t>
+  </si>
+  <si>
+    <t>TypeTest_Long</t>
+  </si>
+  <si>
+    <t>TypeTest_Short</t>
+  </si>
+  <si>
+    <t>TypeTest_Int</t>
+  </si>
+  <si>
+    <t>APITest_Configuration</t>
+  </si>
+  <si>
+    <t>APITest_Integration</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -178,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -192,11 +228,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -241,14 +298,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:H26" totalsRowShown="0">
-  <autoFilter ref="A5:H26"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:G26" totalsRowShown="0">
+  <autoFilter ref="A5:G26"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Req Class"/>
     <tableColumn id="6" name="Author"/>
     <tableColumn id="2" name="Req ID ID"/>
     <tableColumn id="3" name="Requirement"/>
-    <tableColumn id="7" name="Test ID"/>
     <tableColumn id="4" name="Test Case"/>
     <tableColumn id="5" name="Passed"/>
     <tableColumn id="8" name="Date Passed"/>
@@ -520,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,34 +588,31 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -573,19 +626,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -598,14 +648,17 @@
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <v>41651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -618,14 +671,17 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -638,14 +694,17 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -658,14 +717,17 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -678,14 +740,17 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -698,14 +763,17 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -718,14 +786,17 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -738,14 +809,17 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -758,14 +832,17 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -778,14 +855,17 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -798,14 +878,17 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5">
+        <v>41649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -818,14 +901,11 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -838,14 +918,11 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -858,14 +935,11 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -878,14 +952,14 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -895,14 +969,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -912,14 +983,11 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -929,14 +997,11 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="E23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -946,10 +1011,7 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="E24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -959,20 +1021,15 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="2">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G24">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="F6:F24">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
